--- a/performance-test/syncdata-and-regproc/MOSIP_TPS_Thread_setting_calculator-RegProc_SyncData.xlsx
+++ b/performance-test/syncdata-and-regproc/MOSIP_TPS_Thread_setting_calculator-RegProc_SyncData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PerfScripts\Release\Platform1.3.x\performance-test\syncdata-and-regproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01935586-8CD6-40B0-A3D1-3DAFBEC8A819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28DFDE-A857-49C2-AB1D-7F662E2ECD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00F0FE37-4E08-4BBA-8E9E-0C9A5473C445}"/>
   </bookViews>
@@ -109,10 +109,6 @@
     <t>From Test Execution</t>
   </si>
   <si>
-    <t>Constant Throughput Limit
-(per minute)</t>
-  </si>
-  <si>
     <t>Totals --&gt;</t>
   </si>
   <si>
@@ -167,6 +163,10 @@
     <t>Scenario Reponse Time
 (From shakeout test)
  (ms) (Average)</t>
+  </si>
+  <si>
+    <t>Constant Throughput Timer
+(samples per minute)</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1279,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,20 +1292,20 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
       <c r="H1" s="62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="3" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="59"/>
@@ -1376,13 +1376,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>3</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="22" t="s">
@@ -1400,7 +1400,7 @@
     </row>
     <row r="6" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="32">
         <v>2</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="7" spans="1:11" s="52" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="35">
         <v>8</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="8" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="35">
         <v>1</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>100 %</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="48">
@@ -1730,7 +1730,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/performance-test/syncdata-and-regproc/MOSIP_TPS_Thread_setting_calculator-RegProc_SyncData.xlsx
+++ b/performance-test/syncdata-and-regproc/MOSIP_TPS_Thread_setting_calculator-RegProc_SyncData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PerfScripts\Release\Platform1.3.x\performance-test\syncdata-and-regproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE28DFDE-A857-49C2-AB1D-7F662E2ECD47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2EA708-78E5-425F-ABB1-2AABACD3987A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00F0FE37-4E08-4BBA-8E9E-0C9A5473C445}"/>
   </bookViews>
   <sheets>
-    <sheet name="Esignet1.6.2" sheetId="2" r:id="rId1"/>
+    <sheet name="RegProc_SyncData" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +22,112 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Deepesh Gurung</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{4B6909C5-1202-4E7E-9614-02D53FC4EBB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deepesh Gurung:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+These come from performance test plan definition </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FA2315E0-024A-4BEE-855D-79493B1C1CF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deepesh Gurung:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This value is obtained from Jmeter results during previous executions.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{EACC7EE0-BB08-4CF2-AFBB-ABAC93C1AF9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deepesh Gurung:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Apply these values in Jmeter thread setting.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{366F7DB2-F788-42C5-84C9-B2DE9BB6B0AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deepesh Gurung:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Apply this valie in Jmeter for "RampUp" variable under "user defined variables"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -176,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +397,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1275,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EF0A02-FD69-493C-AB91-7265D86F2CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EF0A02-FD69-493C-AB91-7265D86F2CBF}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,5 +1874,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>